--- a/Plancheck/check_protocol/STEC poumon RA.xlsx
+++ b/Plancheck/check_protocol/STEC poumon RA.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="156">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37:L41"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1624,9 @@
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -2587,7 +2589,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,9 +2628,7 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
+      <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
         <v>112</v>
@@ -2641,9 +2641,7 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
         <v>112</v>

--- a/Plancheck/check_protocol/STEC poumon RA.xlsx
+++ b/Plancheck/check_protocol/STEC poumon RA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -1477,7 +1477,7 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2286,8 +2286,8 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,10 +2586,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A5" sqref="A5:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2659,41 +2659,6 @@
       <c r="G4" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2708,7 +2673,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,10 +2775,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A11" sqref="A11:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2962,30 +2927,6 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Plancheck/check_protocol/STEC poumon RA.xlsx
+++ b/Plancheck/check_protocol/STEC poumon RA.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="165">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -491,12 +491,39 @@
   </si>
   <si>
     <t>STEC poumon RA</t>
+  </si>
+  <si>
+    <t>AutomaticHighDensityMaterial__</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>DoseReportingMode</t>
+  </si>
+  <si>
+    <t>Dose to medium</t>
+  </si>
+  <si>
+    <t>MaximumAutomaticHighDensityVolumeInCM3__</t>
+  </si>
+  <si>
+    <t>0,50</t>
+  </si>
+  <si>
+    <t>PlanDoseCalculation</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1180,11 +1207,11 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1477,8 +1504,8 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -1963,10 +1990,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="27">
-        <v>0.125</v>
+        <v>156</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>157</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -1980,7 +2007,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" s="27">
         <v>0.125</v>
@@ -1997,10 +2024,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>5</v>
+        <v>96</v>
+      </c>
+      <c r="B34" s="27">
+        <v>0.125</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -2014,10 +2041,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -2030,8 +2057,12 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>5</v>
+      </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
@@ -2043,8 +2074,12 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
@@ -2056,8 +2091,12 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>161</v>
+      </c>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
@@ -2069,8 +2108,12 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>163</v>
+      </c>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
@@ -2082,8 +2125,12 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>164</v>
+      </c>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
@@ -2286,7 +2333,7 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
